--- a/file/转存模板.xlsx
+++ b/file/转存模板.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="51">
   <si>
     <t/>
   </si>
@@ -53,10 +53,10 @@
     <t>#转存账号</t>
   </si>
   <si>
-    <t>https://pan.quark.cn/s/a478090683e9</t>
-  </si>
-  <si>
-    <t>【九月份AI生成国宝熊猫短视频】单条10万赞，多平台变现，轻松月入过W</t>
+    <t>https://pan.quark.cn/s/40baad672ce0</t>
+  </si>
+  <si>
+    <t>网赚副业资源：2024年最新478个搞钱玩法合集  附实战操作</t>
   </si>
   <si>
     <t>9508d7dd25664511b5d77120c9eb0ba7</t>
@@ -68,124 +68,118 @@
     <t>夸父2004</t>
   </si>
   <si>
-    <t>https://pan.quark.cn/s/7e9efd23a65c</t>
-  </si>
-  <si>
-    <t>不晚治愈系水彩专题课第1期</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/aac41a240bba</t>
-  </si>
-  <si>
-    <t>视频号新思路，外国美食视频混剪，撸分成计划收益，上手简单</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/9a8cafad290b</t>
-  </si>
-  <si>
-    <t>【无脑搬运百家号月入5W】24年全新玩法，操作简单，有手就行！</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/3da4533e7833</t>
-  </si>
-  <si>
-    <t>【蛋仔派对5.0全新蓝海玩法】懒人稳定放单变现，手机平板即可操作，小白轻松上手</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/618d9401d221</t>
-  </si>
-  <si>
-    <t>【视频号海外靶场赛道赚分成计划收益】轻松月入过万，操作简单保姆级教程</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/0831b6a67340</t>
-  </si>
-  <si>
-    <t>烘焙教程大全系列+西点面包教程大全</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/d38eeba9ec5c</t>
-  </si>
-  <si>
-    <t>《资治通鉴 · 有声书》中国权谋智慧</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/ccd0d8a08354</t>
-  </si>
-  <si>
-    <t>JustYou 调色训练营</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/b43dc1ae8617</t>
-  </si>
-  <si>
-    <t>知识内容写作课 [学习教育] [pdf+全格式]</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/1294ad5786fc</t>
-  </si>
-  <si>
-    <t>新竞争战略  [pdf+全格式]</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/c98e314f979d</t>
-  </si>
-  <si>
-    <t>让客户主动下单的销售策略</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/d714c99527fd</t>
-  </si>
-  <si>
-    <t>生活艺术家的手作私宅  [pdf+全格式]</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/d158fbedcb09</t>
-  </si>
-  <si>
-    <t>短路：心灵的科学  [pdf+全格式]</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/383795330771</t>
-  </si>
-  <si>
-    <t>数循环 [经济管理] [pdf+全格式]</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/d305545dcf9c</t>
-  </si>
-  <si>
-    <t>春秋左传今注今译（全三册） [套装合集] [pdf+全格式]</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/ceb4bef157ca</t>
-  </si>
-  <si>
-    <t>RAZ 复述思维导图 (学英语辅助神器)</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/6fb54b4fe9cd</t>
-  </si>
-  <si>
-    <t>快速掌握亚马逊选品的技巧</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/4e4cdbad65a0</t>
-  </si>
-  <si>
-    <t>传智播客 &amp; 黑马程序员《Python 爬虫数据采集课程》</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/591c7747a771</t>
-  </si>
-  <si>
-    <t>黑马程序员《8 天零基础入门大数据》</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/0b7d311d6140</t>
-  </si>
-  <si>
-    <t>《2025 中国自助游》行遍中国的保姆级指南</t>
+    <t>https://pan.quark.cn/s/bafef084d100</t>
+  </si>
+  <si>
+    <t>小红书变现运营课</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/c1796c84b414</t>
+  </si>
+  <si>
+    <t>B站付费课程-图灵的猫：人人都能听懂的AI通识课 （已完结）</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/031dc834086c</t>
+  </si>
+  <si>
+    <t>卡牌店模拟器TCG Card Shop Simulator</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/91231c185937</t>
+  </si>
+  <si>
+    <t>去月球系列海滩特别篇</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/2b5383b2bafc</t>
+  </si>
+  <si>
+    <t>叶武滨《时间管理100讲》</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/b6e354685bfb</t>
+  </si>
+  <si>
+    <t>【尚硅谷】2024新版Java教程 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/20c0aa51e4f2</t>
+  </si>
+  <si>
+    <t>【希赛网】2023新版 - 系统架构设计师精讲班</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/f06ed1cf4d7d</t>
+  </si>
+  <si>
+    <t>千金难买：专家亲授弟弟锻炼法  增长增粗延时</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/0f13cf1ad9e0</t>
+  </si>
+  <si>
+    <t>20堂超实用记忆术，教你过目不忘！ 《最强大脑》冠军教练亲授</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/17ea56d0c7b5</t>
+  </si>
+  <si>
+    <t>24节职场课系统提升竞争力</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/43d160a6526c</t>
+  </si>
+  <si>
+    <t>32个高情商公式建立自己的优势</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/285bff7e2151</t>
+  </si>
+  <si>
+    <t>950份折纸教程打包  分类精整资源</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/716e4a85430e</t>
+  </si>
+  <si>
+    <t>北鱼学堂张兴东《儒家文化〈大学〉精讲王者班》</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/08cd88d11a70</t>
+  </si>
+  <si>
+    <t>缠论趋势交易系统</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/b0bd2af8dbaf</t>
+  </si>
+  <si>
+    <t>揭开性格密码：MBTI人格测验全解析</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/febac0c3ce30</t>
+  </si>
+  <si>
+    <t>鲁宾斯坦钢琴调律高级视频课</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/1834a8f828d4</t>
+  </si>
+  <si>
+    <t>一部手机教你玩转短视频达人创作</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/e085b386f0df</t>
+  </si>
+  <si>
+    <t>于赓哲《了不起的大唐文明史》</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/bd21ff218760</t>
+  </si>
+  <si>
+    <t>【稀缺学习资源】世界最大规模青少年数学竞赛《袋鼠数学Math Kangaroo》历年真题合集</t>
   </si>
 </sst>
 </file>
@@ -198,7 +192,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -210,13 +204,6 @@
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -687,156 +674,159 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1170,7 +1160,7 @@
   <dimension ref="A1:H119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -1266,7 +1256,7 @@
       <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F5" t="s">
@@ -1283,7 +1273,7 @@
       <c r="B6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F6" t="s">
@@ -1300,7 +1290,7 @@
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F7" t="s">
@@ -1317,7 +1307,7 @@
       <c r="B8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F8" t="s">
@@ -1334,7 +1324,7 @@
       <c r="B9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="3" t="s">
         <v>26</v>
       </c>
       <c r="F9" t="s">
@@ -1351,7 +1341,7 @@
       <c r="B10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="3" t="s">
         <v>28</v>
       </c>
       <c r="F10" t="s">
@@ -1551,420 +1541,410 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="2:8">
-      <c r="B22" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F22" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" t="s">
-        <v>11</v>
-      </c>
-      <c r="H22" t="s">
-        <v>12</v>
-      </c>
+    <row r="22" spans="2:5">
+      <c r="B22" s="2"/>
+      <c r="E22" s="2"/>
     </row>
     <row r="23" spans="2:5">
-      <c r="B23" s="3"/>
-      <c r="E23" s="3"/>
+      <c r="B23" s="2"/>
+      <c r="E23" s="2"/>
     </row>
     <row r="24" spans="2:5">
-      <c r="B24" s="3"/>
-      <c r="E24" s="3"/>
+      <c r="B24" s="2"/>
+      <c r="E24" s="2"/>
     </row>
     <row r="25" spans="2:5">
-      <c r="B25" s="3"/>
-      <c r="E25" s="3"/>
+      <c r="B25" s="2"/>
+      <c r="E25" s="2"/>
     </row>
     <row r="26" spans="2:5">
-      <c r="B26" s="3"/>
-      <c r="E26" s="3"/>
+      <c r="B26" s="2"/>
+      <c r="E26" s="2"/>
     </row>
     <row r="27" spans="2:5">
-      <c r="B27" s="3"/>
-      <c r="E27" s="3"/>
+      <c r="B27" s="2"/>
+      <c r="E27" s="2"/>
     </row>
     <row r="28" spans="2:5">
-      <c r="B28" s="3"/>
-      <c r="E28" s="3"/>
+      <c r="B28" s="2"/>
+      <c r="E28" s="2"/>
     </row>
     <row r="29" spans="2:5">
-      <c r="B29" s="3"/>
-      <c r="E29" s="3"/>
+      <c r="B29" s="2"/>
+      <c r="E29" s="2"/>
     </row>
     <row r="30" spans="2:5">
-      <c r="B30" s="3"/>
-      <c r="E30" s="3"/>
+      <c r="B30" s="2"/>
+      <c r="E30" s="2"/>
     </row>
     <row r="31" spans="2:5">
-      <c r="B31" s="3"/>
-      <c r="E31" s="3"/>
+      <c r="B31" s="2"/>
+      <c r="E31" s="2"/>
     </row>
     <row r="32" spans="2:5">
-      <c r="B32" s="3"/>
-      <c r="E32" s="3"/>
+      <c r="B32" s="2"/>
+      <c r="E32" s="2"/>
     </row>
     <row r="33" spans="2:5">
-      <c r="B33" s="3"/>
-      <c r="E33" s="3"/>
+      <c r="B33" s="2"/>
+      <c r="E33" s="2"/>
     </row>
     <row r="34" spans="2:5">
-      <c r="B34" s="3"/>
-      <c r="E34" s="3"/>
+      <c r="B34" s="2"/>
+      <c r="E34" s="2"/>
     </row>
     <row r="35" spans="2:5">
-      <c r="B35" s="3"/>
-      <c r="E35" s="3"/>
+      <c r="B35" s="2"/>
+      <c r="E35" s="2"/>
     </row>
     <row r="36" spans="2:5">
-      <c r="B36" s="3"/>
-      <c r="E36" s="3"/>
+      <c r="B36" s="2"/>
+      <c r="E36" s="2"/>
     </row>
     <row r="37" spans="2:5">
-      <c r="B37" s="3"/>
-      <c r="E37" s="3"/>
+      <c r="B37" s="2"/>
+      <c r="E37" s="2"/>
     </row>
     <row r="38" spans="2:5">
-      <c r="B38" s="3"/>
-      <c r="E38" s="3"/>
+      <c r="B38" s="2"/>
+      <c r="E38" s="2"/>
     </row>
     <row r="39" spans="2:5">
-      <c r="B39" s="3"/>
-      <c r="E39" s="3"/>
+      <c r="B39" s="2"/>
+      <c r="E39" s="2"/>
     </row>
     <row r="40" spans="2:5">
-      <c r="B40" s="3"/>
-      <c r="E40" s="3"/>
+      <c r="B40" s="2"/>
+      <c r="E40" s="2"/>
     </row>
     <row r="41" spans="2:5">
-      <c r="B41" s="3"/>
-      <c r="E41" s="3"/>
+      <c r="B41" s="2"/>
+      <c r="E41" s="2"/>
     </row>
     <row r="42" spans="2:5">
-      <c r="B42" s="3"/>
-      <c r="E42" s="3"/>
+      <c r="B42" s="2"/>
+      <c r="E42" s="2"/>
     </row>
     <row r="43" spans="2:5">
-      <c r="B43" s="3"/>
-      <c r="E43" s="3"/>
+      <c r="B43" s="2"/>
+      <c r="E43" s="2"/>
     </row>
     <row r="44" spans="2:5">
-      <c r="B44" s="3"/>
-      <c r="E44" s="3"/>
+      <c r="B44" s="2"/>
+      <c r="E44" s="2"/>
     </row>
     <row r="45" spans="2:5">
-      <c r="B45" s="3"/>
-      <c r="E45" s="3"/>
+      <c r="B45" s="2"/>
+      <c r="E45" s="2"/>
     </row>
     <row r="46" spans="2:5">
-      <c r="B46" s="3"/>
-      <c r="E46" s="3"/>
+      <c r="B46" s="2"/>
+      <c r="E46" s="2"/>
     </row>
     <row r="47" spans="2:5">
-      <c r="B47" s="3"/>
-      <c r="E47" s="3"/>
+      <c r="B47" s="4"/>
+      <c r="E47" s="4"/>
     </row>
     <row r="48" spans="2:5">
-      <c r="B48" s="3"/>
-      <c r="E48" s="3"/>
+      <c r="B48" s="4"/>
+      <c r="E48" s="4"/>
     </row>
     <row r="49" spans="2:5">
-      <c r="B49" s="3"/>
-      <c r="E49" s="3"/>
+      <c r="B49" s="4"/>
+      <c r="E49" s="4"/>
     </row>
     <row r="50" spans="2:5">
-      <c r="B50" s="3"/>
-      <c r="E50" s="3"/>
+      <c r="B50" s="4"/>
+      <c r="E50" s="4"/>
     </row>
     <row r="51" spans="2:5">
-      <c r="B51" s="3"/>
-      <c r="E51" s="3"/>
+      <c r="B51" s="4"/>
+      <c r="E51" s="4"/>
     </row>
     <row r="52" spans="2:5">
-      <c r="B52" s="3"/>
-      <c r="E52" s="3"/>
+      <c r="B52" s="4"/>
+      <c r="E52" s="4"/>
     </row>
     <row r="53" spans="2:5">
-      <c r="B53" s="3"/>
-      <c r="E53" s="3"/>
+      <c r="B53" s="4"/>
+      <c r="E53" s="4"/>
     </row>
     <row r="54" spans="2:5">
-      <c r="B54" s="3"/>
-      <c r="E54" s="3"/>
+      <c r="B54" s="4"/>
+      <c r="E54" s="4"/>
     </row>
     <row r="55" spans="2:5">
-      <c r="B55" s="3"/>
-      <c r="E55" s="3"/>
+      <c r="B55" s="4"/>
+      <c r="E55" s="4"/>
     </row>
     <row r="56" spans="2:5">
-      <c r="B56" s="3"/>
-      <c r="E56" s="3"/>
+      <c r="B56" s="4"/>
+      <c r="E56" s="4"/>
     </row>
     <row r="57" spans="2:5">
-      <c r="B57" s="3"/>
-      <c r="E57" s="3"/>
+      <c r="B57" s="4"/>
+      <c r="E57" s="4"/>
     </row>
     <row r="58" spans="2:5">
-      <c r="B58" s="3"/>
-      <c r="E58" s="3"/>
+      <c r="B58" s="4"/>
+      <c r="E58" s="4"/>
     </row>
     <row r="59" spans="2:5">
-      <c r="B59" s="3"/>
-      <c r="E59" s="3"/>
+      <c r="B59" s="4"/>
+      <c r="E59" s="4"/>
     </row>
     <row r="60" spans="2:5">
-      <c r="B60" s="3"/>
-      <c r="E60" s="3"/>
+      <c r="B60" s="4"/>
+      <c r="E60" s="4"/>
     </row>
     <row r="61" spans="2:5">
-      <c r="B61" s="3"/>
-      <c r="E61" s="3"/>
+      <c r="B61" s="4"/>
+      <c r="E61" s="4"/>
     </row>
     <row r="62" spans="2:5">
-      <c r="B62" s="3"/>
-      <c r="E62" s="3"/>
+      <c r="B62" s="4"/>
+      <c r="E62" s="4"/>
     </row>
     <row r="63" spans="2:5">
-      <c r="B63" s="3"/>
-      <c r="E63" s="3"/>
+      <c r="B63" s="4"/>
+      <c r="E63" s="4"/>
     </row>
     <row r="64" spans="2:5">
-      <c r="B64" s="3"/>
-      <c r="E64" s="3"/>
+      <c r="B64" s="4"/>
+      <c r="E64" s="4"/>
     </row>
     <row r="65" spans="2:5">
-      <c r="B65" s="3"/>
-      <c r="E65" s="3"/>
+      <c r="B65" s="4"/>
+      <c r="E65" s="4"/>
     </row>
     <row r="66" spans="2:5">
-      <c r="B66" s="3"/>
-      <c r="E66" s="3"/>
+      <c r="B66" s="4"/>
+      <c r="E66" s="4"/>
     </row>
     <row r="67" spans="2:5">
-      <c r="B67" s="3"/>
-      <c r="E67" s="3"/>
+      <c r="B67" s="4"/>
+      <c r="E67" s="4"/>
     </row>
     <row r="68" spans="2:5">
-      <c r="B68" s="3"/>
-      <c r="E68" s="3"/>
+      <c r="B68" s="4"/>
+      <c r="E68" s="4"/>
     </row>
     <row r="69" spans="2:5">
-      <c r="B69" s="3"/>
-      <c r="E69" s="3"/>
+      <c r="B69" s="4"/>
+      <c r="E69" s="4"/>
     </row>
     <row r="70" spans="2:5">
-      <c r="B70" s="3"/>
-      <c r="E70" s="3"/>
+      <c r="B70" s="4"/>
+      <c r="E70" s="4"/>
     </row>
     <row r="71" spans="2:5">
-      <c r="B71" s="3"/>
-      <c r="E71" s="3"/>
+      <c r="B71" s="4"/>
+      <c r="E71" s="4"/>
     </row>
     <row r="72" spans="2:5">
-      <c r="B72" s="3"/>
-      <c r="E72" s="3"/>
+      <c r="B72" s="4"/>
+      <c r="E72" s="4"/>
     </row>
     <row r="73" spans="2:5">
-      <c r="B73" s="3"/>
-      <c r="E73" s="3"/>
+      <c r="B73" s="4"/>
+      <c r="E73" s="4"/>
     </row>
     <row r="74" spans="2:5">
-      <c r="B74" s="3"/>
-      <c r="E74" s="3"/>
+      <c r="B74" s="4"/>
+      <c r="E74" s="4"/>
     </row>
     <row r="75" spans="2:5">
-      <c r="B75" s="3"/>
-      <c r="E75" s="3"/>
+      <c r="B75" s="4"/>
+      <c r="E75" s="4"/>
     </row>
     <row r="76" spans="2:5">
-      <c r="B76" s="3"/>
-      <c r="E76" s="3"/>
+      <c r="B76" s="4"/>
+      <c r="E76" s="4"/>
     </row>
     <row r="77" spans="2:5">
-      <c r="B77" s="3"/>
-      <c r="E77" s="3"/>
+      <c r="B77" s="4"/>
+      <c r="E77" s="4"/>
     </row>
     <row r="78" spans="2:5">
-      <c r="B78" s="3"/>
-      <c r="E78" s="3"/>
+      <c r="B78" s="4"/>
+      <c r="E78" s="4"/>
     </row>
     <row r="79" spans="2:5">
-      <c r="B79" s="3"/>
-      <c r="E79" s="3"/>
+      <c r="B79" s="4"/>
+      <c r="E79" s="4"/>
     </row>
     <row r="80" spans="2:5">
-      <c r="B80" s="3"/>
-      <c r="E80" s="3"/>
+      <c r="B80" s="4"/>
+      <c r="E80" s="4"/>
     </row>
     <row r="81" spans="2:5">
-      <c r="B81" s="3"/>
-      <c r="E81" s="3"/>
+      <c r="B81" s="4"/>
+      <c r="E81" s="4"/>
     </row>
     <row r="82" spans="2:5">
-      <c r="B82" s="3"/>
-      <c r="E82" s="3"/>
+      <c r="B82" s="4"/>
+      <c r="E82" s="4"/>
     </row>
     <row r="83" spans="2:5">
-      <c r="B83" s="3"/>
-      <c r="E83" s="3"/>
+      <c r="B83" s="4"/>
+      <c r="E83" s="4"/>
     </row>
     <row r="84" spans="2:5">
-      <c r="B84" s="3"/>
-      <c r="E84" s="3"/>
+      <c r="B84" s="4"/>
+      <c r="E84" s="4"/>
     </row>
     <row r="85" spans="2:5">
-      <c r="B85" s="3"/>
-      <c r="E85" s="3"/>
+      <c r="B85" s="4"/>
+      <c r="E85" s="4"/>
     </row>
     <row r="86" spans="2:5">
-      <c r="B86" s="3"/>
-      <c r="E86" s="3"/>
+      <c r="B86" s="4"/>
+      <c r="E86" s="4"/>
     </row>
     <row r="87" spans="2:5">
-      <c r="B87" s="3"/>
-      <c r="E87" s="3"/>
+      <c r="B87" s="4"/>
+      <c r="E87" s="4"/>
     </row>
     <row r="88" spans="2:5">
-      <c r="B88" s="3"/>
-      <c r="E88" s="3"/>
+      <c r="B88" s="4"/>
+      <c r="E88" s="4"/>
     </row>
     <row r="89" spans="2:5">
-      <c r="B89" s="3"/>
-      <c r="E89" s="3"/>
+      <c r="B89" s="4"/>
+      <c r="E89" s="4"/>
     </row>
     <row r="90" spans="2:5">
-      <c r="B90" s="3"/>
-      <c r="E90" s="3"/>
+      <c r="B90" s="4"/>
+      <c r="E90" s="4"/>
     </row>
     <row r="91" spans="2:5">
-      <c r="B91" s="3"/>
-      <c r="E91" s="3"/>
+      <c r="B91" s="4"/>
+      <c r="E91" s="4"/>
     </row>
     <row r="92" spans="2:5">
-      <c r="B92" s="3"/>
-      <c r="E92" s="3"/>
+      <c r="B92" s="4"/>
+      <c r="E92" s="4"/>
     </row>
     <row r="93" spans="2:5">
-      <c r="B93" s="3"/>
-      <c r="E93" s="3"/>
+      <c r="B93" s="4"/>
+      <c r="E93" s="4"/>
     </row>
     <row r="94" spans="2:5">
-      <c r="B94" s="3"/>
-      <c r="E94" s="3"/>
+      <c r="B94" s="4"/>
+      <c r="E94" s="4"/>
     </row>
     <row r="95" spans="2:5">
-      <c r="B95" s="3"/>
-      <c r="E95" s="3"/>
+      <c r="B95" s="4"/>
+      <c r="E95" s="4"/>
     </row>
     <row r="96" spans="2:5">
-      <c r="B96" s="3"/>
-      <c r="E96" s="3"/>
+      <c r="B96" s="4"/>
+      <c r="E96" s="4"/>
     </row>
     <row r="97" spans="2:5">
-      <c r="B97" s="3"/>
-      <c r="E97" s="3"/>
+      <c r="B97" s="4"/>
+      <c r="E97" s="4"/>
     </row>
     <row r="98" spans="2:5">
-      <c r="B98" s="3"/>
-      <c r="E98" s="3"/>
+      <c r="B98" s="4"/>
+      <c r="E98" s="4"/>
     </row>
     <row r="99" spans="2:5">
-      <c r="B99" s="3"/>
-      <c r="E99" s="3"/>
+      <c r="B99" s="4"/>
+      <c r="E99" s="4"/>
     </row>
     <row r="100" spans="2:5">
-      <c r="B100" s="3"/>
-      <c r="E100" s="3"/>
+      <c r="B100" s="4"/>
+      <c r="E100" s="4"/>
     </row>
     <row r="101" spans="2:5">
-      <c r="B101" s="3"/>
-      <c r="E101" s="3"/>
+      <c r="B101" s="4"/>
+      <c r="E101" s="4"/>
     </row>
     <row r="102" spans="2:5">
-      <c r="B102" s="3"/>
-      <c r="E102" s="3"/>
+      <c r="B102" s="4"/>
+      <c r="E102" s="4"/>
     </row>
     <row r="103" spans="2:5">
-      <c r="B103" s="3"/>
-      <c r="E103" s="3"/>
+      <c r="B103" s="4"/>
+      <c r="E103" s="4"/>
     </row>
     <row r="104" spans="2:5">
-      <c r="B104" s="3"/>
-      <c r="E104" s="3"/>
+      <c r="B104" s="4"/>
+      <c r="E104" s="4"/>
     </row>
     <row r="105" spans="2:5">
-      <c r="B105" s="3"/>
-      <c r="E105" s="3"/>
+      <c r="B105" s="4"/>
+      <c r="E105" s="4"/>
     </row>
     <row r="106" spans="2:5">
-      <c r="B106" s="3"/>
-      <c r="E106" s="3"/>
+      <c r="B106" s="4"/>
+      <c r="E106" s="4"/>
     </row>
     <row r="107" spans="2:5">
-      <c r="B107" s="3"/>
-      <c r="E107" s="3"/>
+      <c r="B107" s="4"/>
+      <c r="E107" s="4"/>
     </row>
     <row r="108" spans="2:5">
-      <c r="B108" s="3"/>
-      <c r="E108" s="3"/>
+      <c r="B108" s="4"/>
+      <c r="E108" s="4"/>
     </row>
     <row r="109" spans="2:5">
-      <c r="B109" s="3"/>
-      <c r="E109" s="3"/>
+      <c r="B109" s="4"/>
+      <c r="E109" s="4"/>
     </row>
     <row r="110" spans="2:5">
-      <c r="B110" s="3"/>
-      <c r="E110" s="3"/>
+      <c r="B110" s="4"/>
+      <c r="E110" s="4"/>
     </row>
     <row r="111" spans="2:5">
-      <c r="B111" s="3"/>
-      <c r="E111" s="3"/>
+      <c r="B111" s="4"/>
+      <c r="E111" s="4"/>
     </row>
     <row r="112" spans="2:5">
-      <c r="B112" s="3"/>
-      <c r="E112" s="3"/>
+      <c r="B112" s="4"/>
+      <c r="E112" s="4"/>
     </row>
     <row r="113" spans="2:5">
-      <c r="B113" s="3"/>
-      <c r="E113" s="3"/>
+      <c r="B113" s="4"/>
+      <c r="E113" s="4"/>
     </row>
     <row r="114" spans="2:5">
-      <c r="B114" s="3"/>
-      <c r="E114" s="3"/>
+      <c r="B114" s="4"/>
+      <c r="E114" s="4"/>
     </row>
     <row r="115" spans="2:5">
-      <c r="B115" s="3"/>
-      <c r="E115" s="3"/>
+      <c r="B115" s="4"/>
+      <c r="E115" s="4"/>
     </row>
     <row r="116" spans="2:5">
-      <c r="B116" s="3"/>
-      <c r="E116" s="3"/>
+      <c r="B116" s="4"/>
+      <c r="E116" s="4"/>
     </row>
     <row r="117" spans="2:5">
-      <c r="B117" s="3"/>
-      <c r="E117" s="3"/>
+      <c r="B117" s="4"/>
+      <c r="E117" s="4"/>
     </row>
     <row r="118" spans="2:5">
-      <c r="B118" s="3"/>
-      <c r="E118" s="3"/>
+      <c r="B118" s="4"/>
+      <c r="E118" s="4"/>
     </row>
     <row r="119" spans="2:5">
-      <c r="B119" s="3"/>
-      <c r="E119" s="3"/>
+      <c r="B119" s="4"/>
+      <c r="E119" s="4"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E2:E22">
+  <conditionalFormatting sqref="E22:E46">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E4 E11:E21">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A1 I1" evalError="1" twoDigitTextYear="1" numberStoredAsText="1" formula="1" formulaRange="1" unlockedFormula="1" emptyCellReference="1" listDataValidation="1"/>
+    <ignoredError sqref="I1 A1" evalError="1" twoDigitTextYear="1" numberStoredAsText="1" formula="1" formulaRange="1" unlockedFormula="1" emptyCellReference="1" listDataValidation="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/file/转存模板.xlsx
+++ b/file/转存模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9132"/>
+    <workbookView windowWidth="23040" windowHeight="9132"/>
   </bookViews>
   <sheets>
     <sheet name="我的分享" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="57">
   <si>
     <t/>
   </si>
@@ -53,10 +53,10 @@
     <t>#转存账号</t>
   </si>
   <si>
-    <t>https://pan.quark.cn/s/40baad672ce0</t>
-  </si>
-  <si>
-    <t>网赚副业资源：2024年最新478个搞钱玩法合集  附实战操作</t>
+    <t>https://pan.quark.cn/s/8d82c762a0b4</t>
+  </si>
+  <si>
+    <t>生意内幕核心干货和手段课程</t>
   </si>
   <si>
     <t>9508d7dd25664511b5d77120c9eb0ba7</t>
@@ -68,118 +68,136 @@
     <t>夸父2004</t>
   </si>
   <si>
-    <t>https://pan.quark.cn/s/bafef084d100</t>
-  </si>
-  <si>
-    <t>小红书变现运营课</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/c1796c84b414</t>
-  </si>
-  <si>
-    <t>B站付费课程-图灵的猫：人人都能听懂的AI通识课 （已完结）</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/031dc834086c</t>
-  </si>
-  <si>
-    <t>卡牌店模拟器TCG Card Shop Simulator</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/91231c185937</t>
-  </si>
-  <si>
-    <t>去月球系列海滩特别篇</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/2b5383b2bafc</t>
-  </si>
-  <si>
-    <t>叶武滨《时间管理100讲》</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/b6e354685bfb</t>
-  </si>
-  <si>
-    <t>【尚硅谷】2024新版Java教程 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/20c0aa51e4f2</t>
-  </si>
-  <si>
-    <t>【希赛网】2023新版 - 系统架构设计师精讲班</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/f06ed1cf4d7d</t>
-  </si>
-  <si>
-    <t>千金难买：专家亲授弟弟锻炼法  增长增粗延时</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/0f13cf1ad9e0</t>
-  </si>
-  <si>
-    <t>20堂超实用记忆术，教你过目不忘！ 《最强大脑》冠军教练亲授</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/17ea56d0c7b5</t>
-  </si>
-  <si>
-    <t>24节职场课系统提升竞争力</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/43d160a6526c</t>
-  </si>
-  <si>
-    <t>32个高情商公式建立自己的优势</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/285bff7e2151</t>
-  </si>
-  <si>
-    <t>950份折纸教程打包  分类精整资源</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/716e4a85430e</t>
-  </si>
-  <si>
-    <t>北鱼学堂张兴东《儒家文化〈大学〉精讲王者班》</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/08cd88d11a70</t>
-  </si>
-  <si>
-    <t>缠论趋势交易系统</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/b0bd2af8dbaf</t>
-  </si>
-  <si>
-    <t>揭开性格密码：MBTI人格测验全解析</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/febac0c3ce30</t>
-  </si>
-  <si>
-    <t>鲁宾斯坦钢琴调律高级视频课</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/1834a8f828d4</t>
-  </si>
-  <si>
-    <t>一部手机教你玩转短视频达人创作</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/e085b386f0df</t>
-  </si>
-  <si>
-    <t>于赓哲《了不起的大唐文明史》</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/bd21ff218760</t>
-  </si>
-  <si>
-    <t>【稀缺学习资源】世界最大规模青少年数学竞赛《袋鼠数学Math Kangaroo》历年真题合集</t>
+    <t>https://pan.quark.cn/s/b9c9ad768fae</t>
+  </si>
+  <si>
+    <t>从白手起家到百亿营收幕后细节</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/0d74d9aa3002</t>
+  </si>
+  <si>
+    <t>2024老板必学的商业实操课</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/daa1a6d32bc3</t>
+  </si>
+  <si>
+    <t>1688高级运营课 学习核心技能</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/fc2c3bcefcef</t>
+  </si>
+  <si>
+    <t>高效签单驱动力 突破业绩瓶颈</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/2f9d1efd3b2b</t>
+  </si>
+  <si>
+    <t>自媒体变现计划2024全新版本</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/23c54ef3015a</t>
+  </si>
+  <si>
+    <t>微信安全运营 新版升级更加有效</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/975a93ab9cb6</t>
+  </si>
+  <si>
+    <t>高手的黑箱：AI时代学习、思考与创作</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/0b5d5d52fce5</t>
+  </si>
+  <si>
+    <t>小白玩转AI大模型应用开发</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/0b8c0b143d4d</t>
+  </si>
+  <si>
+    <t>人人可学的AI与高科技普及</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/e2058c9ae2b3</t>
+  </si>
+  <si>
+    <t>单位阳谋：讲透体制内单位门道251节</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/d79f2033addf</t>
+  </si>
+  <si>
+    <t>男性腹肌打造瘦肚子全方案</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/66748e7be632</t>
+  </si>
+  <si>
+    <t>赢在人情世故 走向成功的社交策略</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/09019a8e04de</t>
+  </si>
+  <si>
+    <t>自我价值实现课，思辨盛宴极致表达</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/1b3baa0e66ab</t>
+  </si>
+  <si>
+    <t>学透鬼谷子谋略21堂最全攻心术</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/cc236be15e48</t>
+  </si>
+  <si>
+    <t>30招戒掉手机瘾不吵不闹放下手机</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/396b68889a45</t>
+  </si>
+  <si>
+    <t>男哥《成功人士遵循的因果论》</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/7cb87d889a30</t>
+  </si>
+  <si>
+    <t>用手机拍摄有品质的短视频</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/89af143c3d0b</t>
+  </si>
+  <si>
+    <t>剪辑技巧速成课 新人小白到大师</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/909ea6540f88</t>
+  </si>
+  <si>
+    <t>啸天老师婚礼主持全能课程</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/35ac0d955f53</t>
+  </si>
+  <si>
+    <t>吉他系统教程 小白到大神</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/9f2a876fac72</t>
+  </si>
+  <si>
+    <t>响马学院2023静物精修研修课</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/b75060519437</t>
+  </si>
+  <si>
+    <t>aiki007视觉设计实战班第6期</t>
   </si>
 </sst>
 </file>
@@ -192,7 +210,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -204,6 +222,13 @@
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -674,159 +699,156 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1157,10 +1179,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H119"/>
+  <dimension ref="A1:H219"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -1256,7 +1278,7 @@
       <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F5" t="s">
@@ -1273,7 +1295,7 @@
       <c r="B6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F6" t="s">
@@ -1290,7 +1312,7 @@
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F7" t="s">
@@ -1307,7 +1329,7 @@
       <c r="B8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F8" t="s">
@@ -1324,7 +1346,7 @@
       <c r="B9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F9" t="s">
@@ -1341,7 +1363,7 @@
       <c r="B10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F10" t="s">
@@ -1541,404 +1563,843 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="2:5">
-      <c r="B22" s="2"/>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="2:5">
-      <c r="B23" s="2"/>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="2:5">
-      <c r="B24" s="2"/>
-      <c r="E24" s="2"/>
+    <row r="22" spans="2:8">
+      <c r="B22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="25" spans="2:5">
-      <c r="B25" s="2"/>
-      <c r="E25" s="2"/>
+      <c r="B25" s="3"/>
+      <c r="E25" s="3"/>
     </row>
     <row r="26" spans="2:5">
-      <c r="B26" s="2"/>
-      <c r="E26" s="2"/>
+      <c r="B26" s="3"/>
+      <c r="E26" s="3"/>
     </row>
     <row r="27" spans="2:5">
-      <c r="B27" s="2"/>
-      <c r="E27" s="2"/>
+      <c r="B27" s="3"/>
+      <c r="E27" s="3"/>
     </row>
     <row r="28" spans="2:5">
-      <c r="B28" s="2"/>
-      <c r="E28" s="2"/>
+      <c r="B28" s="3"/>
+      <c r="E28" s="3"/>
     </row>
     <row r="29" spans="2:5">
-      <c r="B29" s="2"/>
-      <c r="E29" s="2"/>
+      <c r="B29" s="3"/>
+      <c r="E29" s="3"/>
     </row>
     <row r="30" spans="2:5">
-      <c r="B30" s="2"/>
-      <c r="E30" s="2"/>
+      <c r="B30" s="3"/>
+      <c r="E30" s="3"/>
     </row>
     <row r="31" spans="2:5">
-      <c r="B31" s="2"/>
-      <c r="E31" s="2"/>
+      <c r="B31" s="3"/>
+      <c r="E31" s="3"/>
     </row>
     <row r="32" spans="2:5">
-      <c r="B32" s="2"/>
-      <c r="E32" s="2"/>
+      <c r="B32" s="3"/>
+      <c r="E32" s="3"/>
     </row>
     <row r="33" spans="2:5">
-      <c r="B33" s="2"/>
-      <c r="E33" s="2"/>
+      <c r="B33" s="3"/>
+      <c r="E33" s="3"/>
     </row>
     <row r="34" spans="2:5">
-      <c r="B34" s="2"/>
-      <c r="E34" s="2"/>
+      <c r="B34" s="3"/>
+      <c r="E34" s="3"/>
     </row>
     <row r="35" spans="2:5">
-      <c r="B35" s="2"/>
-      <c r="E35" s="2"/>
+      <c r="B35" s="3"/>
+      <c r="E35" s="3"/>
     </row>
     <row r="36" spans="2:5">
-      <c r="B36" s="2"/>
-      <c r="E36" s="2"/>
+      <c r="B36" s="3"/>
+      <c r="E36" s="3"/>
     </row>
     <row r="37" spans="2:5">
-      <c r="B37" s="2"/>
-      <c r="E37" s="2"/>
+      <c r="B37" s="3"/>
+      <c r="E37" s="3"/>
     </row>
     <row r="38" spans="2:5">
-      <c r="B38" s="2"/>
-      <c r="E38" s="2"/>
+      <c r="B38" s="3"/>
+      <c r="E38" s="3"/>
     </row>
     <row r="39" spans="2:5">
-      <c r="B39" s="2"/>
-      <c r="E39" s="2"/>
+      <c r="B39" s="3"/>
+      <c r="E39" s="3"/>
     </row>
     <row r="40" spans="2:5">
-      <c r="B40" s="2"/>
-      <c r="E40" s="2"/>
+      <c r="B40" s="3"/>
+      <c r="E40" s="3"/>
     </row>
     <row r="41" spans="2:5">
-      <c r="B41" s="2"/>
-      <c r="E41" s="2"/>
+      <c r="B41" s="3"/>
+      <c r="E41" s="3"/>
     </row>
     <row r="42" spans="2:5">
-      <c r="B42" s="2"/>
-      <c r="E42" s="2"/>
+      <c r="B42" s="3"/>
+      <c r="E42" s="3"/>
     </row>
     <row r="43" spans="2:5">
-      <c r="B43" s="2"/>
-      <c r="E43" s="2"/>
+      <c r="B43" s="3"/>
+      <c r="E43" s="3"/>
     </row>
     <row r="44" spans="2:5">
-      <c r="B44" s="2"/>
-      <c r="E44" s="2"/>
+      <c r="B44" s="3"/>
+      <c r="E44" s="3"/>
     </row>
     <row r="45" spans="2:5">
-      <c r="B45" s="2"/>
-      <c r="E45" s="2"/>
+      <c r="B45" s="3"/>
+      <c r="E45" s="3"/>
     </row>
     <row r="46" spans="2:5">
-      <c r="B46" s="2"/>
-      <c r="E46" s="2"/>
+      <c r="B46" s="3"/>
+      <c r="E46" s="3"/>
     </row>
     <row r="47" spans="2:5">
-      <c r="B47" s="4"/>
-      <c r="E47" s="4"/>
+      <c r="B47" s="3"/>
+      <c r="E47" s="3"/>
     </row>
     <row r="48" spans="2:5">
-      <c r="B48" s="4"/>
-      <c r="E48" s="4"/>
+      <c r="B48" s="3"/>
+      <c r="E48" s="3"/>
     </row>
     <row r="49" spans="2:5">
-      <c r="B49" s="4"/>
-      <c r="E49" s="4"/>
+      <c r="B49" s="3"/>
+      <c r="E49" s="3"/>
     </row>
     <row r="50" spans="2:5">
-      <c r="B50" s="4"/>
-      <c r="E50" s="4"/>
+      <c r="B50" s="3"/>
+      <c r="E50" s="3"/>
     </row>
     <row r="51" spans="2:5">
-      <c r="B51" s="4"/>
-      <c r="E51" s="4"/>
+      <c r="B51" s="3"/>
+      <c r="E51" s="3"/>
     </row>
     <row r="52" spans="2:5">
-      <c r="B52" s="4"/>
-      <c r="E52" s="4"/>
+      <c r="B52" s="3"/>
+      <c r="E52" s="3"/>
     </row>
     <row r="53" spans="2:5">
-      <c r="B53" s="4"/>
-      <c r="E53" s="4"/>
+      <c r="B53" s="3"/>
+      <c r="E53" s="3"/>
     </row>
     <row r="54" spans="2:5">
-      <c r="B54" s="4"/>
-      <c r="E54" s="4"/>
+      <c r="B54" s="3"/>
+      <c r="E54" s="3"/>
     </row>
     <row r="55" spans="2:5">
-      <c r="B55" s="4"/>
-      <c r="E55" s="4"/>
+      <c r="B55" s="3"/>
+      <c r="E55" s="3"/>
     </row>
     <row r="56" spans="2:5">
-      <c r="B56" s="4"/>
-      <c r="E56" s="4"/>
+      <c r="B56" s="3"/>
+      <c r="E56" s="3"/>
     </row>
     <row r="57" spans="2:5">
-      <c r="B57" s="4"/>
-      <c r="E57" s="4"/>
+      <c r="B57" s="3"/>
+      <c r="E57" s="3"/>
     </row>
     <row r="58" spans="2:5">
-      <c r="B58" s="4"/>
-      <c r="E58" s="4"/>
+      <c r="B58" s="3"/>
+      <c r="E58" s="3"/>
     </row>
     <row r="59" spans="2:5">
-      <c r="B59" s="4"/>
-      <c r="E59" s="4"/>
+      <c r="B59" s="3"/>
+      <c r="E59" s="3"/>
     </row>
     <row r="60" spans="2:5">
-      <c r="B60" s="4"/>
-      <c r="E60" s="4"/>
+      <c r="B60" s="3"/>
+      <c r="E60" s="3"/>
     </row>
     <row r="61" spans="2:5">
-      <c r="B61" s="4"/>
-      <c r="E61" s="4"/>
+      <c r="B61" s="3"/>
+      <c r="E61" s="3"/>
     </row>
     <row r="62" spans="2:5">
-      <c r="B62" s="4"/>
-      <c r="E62" s="4"/>
+      <c r="B62" s="3"/>
+      <c r="E62" s="3"/>
     </row>
     <row r="63" spans="2:5">
-      <c r="B63" s="4"/>
-      <c r="E63" s="4"/>
+      <c r="B63" s="3"/>
+      <c r="E63" s="3"/>
     </row>
     <row r="64" spans="2:5">
-      <c r="B64" s="4"/>
-      <c r="E64" s="4"/>
+      <c r="B64" s="3"/>
+      <c r="E64" s="3"/>
     </row>
     <row r="65" spans="2:5">
-      <c r="B65" s="4"/>
-      <c r="E65" s="4"/>
+      <c r="B65" s="3"/>
+      <c r="E65" s="3"/>
     </row>
     <row r="66" spans="2:5">
-      <c r="B66" s="4"/>
-      <c r="E66" s="4"/>
+      <c r="B66" s="3"/>
+      <c r="E66" s="3"/>
     </row>
     <row r="67" spans="2:5">
-      <c r="B67" s="4"/>
-      <c r="E67" s="4"/>
+      <c r="B67" s="3"/>
+      <c r="E67" s="3"/>
     </row>
     <row r="68" spans="2:5">
-      <c r="B68" s="4"/>
-      <c r="E68" s="4"/>
+      <c r="B68" s="3"/>
+      <c r="E68" s="3"/>
     </row>
     <row r="69" spans="2:5">
-      <c r="B69" s="4"/>
-      <c r="E69" s="4"/>
+      <c r="B69" s="3"/>
+      <c r="E69" s="3"/>
     </row>
     <row r="70" spans="2:5">
-      <c r="B70" s="4"/>
-      <c r="E70" s="4"/>
+      <c r="B70" s="3"/>
+      <c r="E70" s="3"/>
     </row>
     <row r="71" spans="2:5">
-      <c r="B71" s="4"/>
-      <c r="E71" s="4"/>
+      <c r="B71" s="3"/>
+      <c r="E71" s="3"/>
     </row>
     <row r="72" spans="2:5">
-      <c r="B72" s="4"/>
-      <c r="E72" s="4"/>
+      <c r="B72" s="3"/>
+      <c r="E72" s="3"/>
     </row>
     <row r="73" spans="2:5">
-      <c r="B73" s="4"/>
-      <c r="E73" s="4"/>
+      <c r="B73" s="3"/>
+      <c r="E73" s="3"/>
     </row>
     <row r="74" spans="2:5">
-      <c r="B74" s="4"/>
-      <c r="E74" s="4"/>
+      <c r="B74" s="3"/>
+      <c r="E74" s="3"/>
     </row>
     <row r="75" spans="2:5">
-      <c r="B75" s="4"/>
-      <c r="E75" s="4"/>
+      <c r="B75" s="3"/>
+      <c r="E75" s="3"/>
     </row>
     <row r="76" spans="2:5">
-      <c r="B76" s="4"/>
-      <c r="E76" s="4"/>
+      <c r="B76" s="3"/>
+      <c r="E76" s="3"/>
     </row>
     <row r="77" spans="2:5">
-      <c r="B77" s="4"/>
-      <c r="E77" s="4"/>
+      <c r="B77" s="3"/>
+      <c r="E77" s="3"/>
     </row>
     <row r="78" spans="2:5">
-      <c r="B78" s="4"/>
-      <c r="E78" s="4"/>
+      <c r="B78" s="3"/>
+      <c r="E78" s="3"/>
     </row>
     <row r="79" spans="2:5">
-      <c r="B79" s="4"/>
-      <c r="E79" s="4"/>
+      <c r="B79" s="3"/>
+      <c r="E79" s="3"/>
     </row>
     <row r="80" spans="2:5">
-      <c r="B80" s="4"/>
-      <c r="E80" s="4"/>
+      <c r="B80" s="3"/>
+      <c r="E80" s="3"/>
     </row>
     <row r="81" spans="2:5">
-      <c r="B81" s="4"/>
-      <c r="E81" s="4"/>
+      <c r="B81" s="3"/>
+      <c r="E81" s="3"/>
     </row>
     <row r="82" spans="2:5">
-      <c r="B82" s="4"/>
-      <c r="E82" s="4"/>
+      <c r="B82" s="3"/>
+      <c r="E82" s="3"/>
     </row>
     <row r="83" spans="2:5">
-      <c r="B83" s="4"/>
-      <c r="E83" s="4"/>
+      <c r="B83" s="3"/>
+      <c r="E83" s="3"/>
     </row>
     <row r="84" spans="2:5">
-      <c r="B84" s="4"/>
-      <c r="E84" s="4"/>
+      <c r="B84" s="3"/>
+      <c r="E84" s="3"/>
     </row>
     <row r="85" spans="2:5">
-      <c r="B85" s="4"/>
-      <c r="E85" s="4"/>
+      <c r="B85" s="3"/>
+      <c r="E85" s="3"/>
     </row>
     <row r="86" spans="2:5">
-      <c r="B86" s="4"/>
-      <c r="E86" s="4"/>
+      <c r="B86" s="3"/>
+      <c r="E86" s="3"/>
     </row>
     <row r="87" spans="2:5">
-      <c r="B87" s="4"/>
-      <c r="E87" s="4"/>
+      <c r="B87" s="3"/>
+      <c r="E87" s="3"/>
     </row>
     <row r="88" spans="2:5">
-      <c r="B88" s="4"/>
-      <c r="E88" s="4"/>
+      <c r="B88" s="3"/>
+      <c r="E88" s="3"/>
     </row>
     <row r="89" spans="2:5">
-      <c r="B89" s="4"/>
-      <c r="E89" s="4"/>
+      <c r="B89" s="3"/>
+      <c r="E89" s="3"/>
     </row>
     <row r="90" spans="2:5">
-      <c r="B90" s="4"/>
-      <c r="E90" s="4"/>
+      <c r="B90" s="3"/>
+      <c r="E90" s="3"/>
     </row>
     <row r="91" spans="2:5">
-      <c r="B91" s="4"/>
-      <c r="E91" s="4"/>
+      <c r="B91" s="3"/>
+      <c r="E91" s="3"/>
     </row>
     <row r="92" spans="2:5">
-      <c r="B92" s="4"/>
-      <c r="E92" s="4"/>
+      <c r="B92" s="3"/>
+      <c r="E92" s="3"/>
     </row>
     <row r="93" spans="2:5">
-      <c r="B93" s="4"/>
-      <c r="E93" s="4"/>
+      <c r="B93" s="3"/>
+      <c r="E93" s="3"/>
     </row>
     <row r="94" spans="2:5">
-      <c r="B94" s="4"/>
-      <c r="E94" s="4"/>
+      <c r="B94" s="3"/>
+      <c r="E94" s="3"/>
     </row>
     <row r="95" spans="2:5">
-      <c r="B95" s="4"/>
-      <c r="E95" s="4"/>
+      <c r="B95" s="3"/>
+      <c r="E95" s="3"/>
     </row>
     <row r="96" spans="2:5">
-      <c r="B96" s="4"/>
-      <c r="E96" s="4"/>
+      <c r="B96" s="3"/>
+      <c r="E96" s="3"/>
     </row>
     <row r="97" spans="2:5">
-      <c r="B97" s="4"/>
-      <c r="E97" s="4"/>
+      <c r="B97" s="3"/>
+      <c r="E97" s="3"/>
     </row>
     <row r="98" spans="2:5">
-      <c r="B98" s="4"/>
-      <c r="E98" s="4"/>
+      <c r="B98" s="3"/>
+      <c r="E98" s="3"/>
     </row>
     <row r="99" spans="2:5">
-      <c r="B99" s="4"/>
-      <c r="E99" s="4"/>
+      <c r="B99" s="3"/>
+      <c r="E99" s="3"/>
     </row>
     <row r="100" spans="2:5">
-      <c r="B100" s="4"/>
-      <c r="E100" s="4"/>
+      <c r="B100" s="3"/>
+      <c r="E100" s="3"/>
     </row>
     <row r="101" spans="2:5">
-      <c r="B101" s="4"/>
-      <c r="E101" s="4"/>
+      <c r="B101" s="3"/>
+      <c r="E101" s="3"/>
     </row>
     <row r="102" spans="2:5">
-      <c r="B102" s="4"/>
-      <c r="E102" s="4"/>
+      <c r="B102" s="3"/>
+      <c r="E102" s="3"/>
     </row>
     <row r="103" spans="2:5">
-      <c r="B103" s="4"/>
-      <c r="E103" s="4"/>
+      <c r="B103" s="3"/>
+      <c r="E103" s="3"/>
     </row>
     <row r="104" spans="2:5">
-      <c r="B104" s="4"/>
-      <c r="E104" s="4"/>
+      <c r="B104" s="3"/>
+      <c r="E104" s="3"/>
     </row>
     <row r="105" spans="2:5">
-      <c r="B105" s="4"/>
-      <c r="E105" s="4"/>
+      <c r="B105" s="3"/>
+      <c r="E105" s="3"/>
     </row>
     <row r="106" spans="2:5">
-      <c r="B106" s="4"/>
-      <c r="E106" s="4"/>
+      <c r="B106" s="3"/>
+      <c r="E106" s="3"/>
     </row>
     <row r="107" spans="2:5">
-      <c r="B107" s="4"/>
-      <c r="E107" s="4"/>
+      <c r="B107" s="3"/>
+      <c r="E107" s="3"/>
     </row>
     <row r="108" spans="2:5">
-      <c r="B108" s="4"/>
-      <c r="E108" s="4"/>
+      <c r="B108" s="3"/>
+      <c r="E108" s="3"/>
     </row>
     <row r="109" spans="2:5">
-      <c r="B109" s="4"/>
-      <c r="E109" s="4"/>
+      <c r="B109" s="3"/>
+      <c r="E109" s="3"/>
     </row>
     <row r="110" spans="2:5">
-      <c r="B110" s="4"/>
-      <c r="E110" s="4"/>
+      <c r="B110" s="3"/>
+      <c r="E110" s="3"/>
     </row>
     <row r="111" spans="2:5">
-      <c r="B111" s="4"/>
-      <c r="E111" s="4"/>
+      <c r="B111" s="3"/>
+      <c r="E111" s="3"/>
     </row>
     <row r="112" spans="2:5">
-      <c r="B112" s="4"/>
-      <c r="E112" s="4"/>
+      <c r="B112" s="3"/>
+      <c r="E112" s="3"/>
     </row>
     <row r="113" spans="2:5">
-      <c r="B113" s="4"/>
-      <c r="E113" s="4"/>
+      <c r="B113" s="3"/>
+      <c r="E113" s="3"/>
     </row>
     <row r="114" spans="2:5">
-      <c r="B114" s="4"/>
-      <c r="E114" s="4"/>
+      <c r="B114" s="3"/>
+      <c r="E114" s="3"/>
     </row>
     <row r="115" spans="2:5">
-      <c r="B115" s="4"/>
-      <c r="E115" s="4"/>
+      <c r="B115" s="3"/>
+      <c r="E115" s="3"/>
     </row>
     <row r="116" spans="2:5">
-      <c r="B116" s="4"/>
-      <c r="E116" s="4"/>
+      <c r="B116" s="3"/>
+      <c r="E116" s="3"/>
     </row>
     <row r="117" spans="2:5">
-      <c r="B117" s="4"/>
-      <c r="E117" s="4"/>
+      <c r="B117" s="3"/>
+      <c r="E117" s="3"/>
     </row>
     <row r="118" spans="2:5">
-      <c r="B118" s="4"/>
-      <c r="E118" s="4"/>
+      <c r="B118" s="3"/>
+      <c r="E118" s="3"/>
     </row>
     <row r="119" spans="2:5">
-      <c r="B119" s="4"/>
-      <c r="E119" s="4"/>
+      <c r="B119" s="3"/>
+      <c r="E119" s="3"/>
+    </row>
+    <row r="120" spans="2:5">
+      <c r="B120" s="3"/>
+      <c r="E120" s="3"/>
+    </row>
+    <row r="121" spans="2:5">
+      <c r="B121" s="3"/>
+      <c r="E121" s="3"/>
+    </row>
+    <row r="122" spans="2:5">
+      <c r="B122" s="3"/>
+      <c r="E122" s="3"/>
+    </row>
+    <row r="123" spans="2:5">
+      <c r="B123" s="3"/>
+      <c r="E123" s="3"/>
+    </row>
+    <row r="124" spans="2:5">
+      <c r="B124" s="3"/>
+      <c r="E124" s="3"/>
+    </row>
+    <row r="125" spans="2:5">
+      <c r="B125" s="3"/>
+      <c r="E125" s="3"/>
+    </row>
+    <row r="126" spans="2:5">
+      <c r="B126" s="3"/>
+      <c r="E126" s="3"/>
+    </row>
+    <row r="127" spans="2:5">
+      <c r="B127" s="3"/>
+      <c r="E127" s="3"/>
+    </row>
+    <row r="128" spans="2:5">
+      <c r="B128" s="3"/>
+      <c r="E128" s="3"/>
+    </row>
+    <row r="129" spans="2:5">
+      <c r="B129" s="3"/>
+      <c r="E129" s="3"/>
+    </row>
+    <row r="130" spans="2:5">
+      <c r="B130" s="3"/>
+      <c r="E130" s="3"/>
+    </row>
+    <row r="131" spans="2:5">
+      <c r="B131" s="3"/>
+      <c r="E131" s="3"/>
+    </row>
+    <row r="132" spans="2:5">
+      <c r="B132" s="3"/>
+      <c r="E132" s="3"/>
+    </row>
+    <row r="133" spans="2:5">
+      <c r="B133" s="3"/>
+      <c r="E133" s="3"/>
+    </row>
+    <row r="134" spans="2:5">
+      <c r="B134" s="3"/>
+      <c r="E134" s="3"/>
+    </row>
+    <row r="135" spans="2:5">
+      <c r="B135" s="3"/>
+      <c r="E135" s="3"/>
+    </row>
+    <row r="136" spans="2:5">
+      <c r="B136" s="3"/>
+      <c r="E136" s="3"/>
+    </row>
+    <row r="137" spans="2:5">
+      <c r="B137" s="3"/>
+      <c r="E137" s="3"/>
+    </row>
+    <row r="138" spans="2:5">
+      <c r="B138" s="3"/>
+      <c r="E138" s="3"/>
+    </row>
+    <row r="139" spans="2:5">
+      <c r="B139" s="3"/>
+      <c r="E139" s="3"/>
+    </row>
+    <row r="140" spans="2:5">
+      <c r="B140" s="3"/>
+      <c r="E140" s="3"/>
+    </row>
+    <row r="141" spans="2:5">
+      <c r="B141" s="3"/>
+      <c r="E141" s="3"/>
+    </row>
+    <row r="142" spans="2:5">
+      <c r="B142" s="3"/>
+      <c r="E142" s="3"/>
+    </row>
+    <row r="143" spans="2:5">
+      <c r="B143" s="3"/>
+      <c r="E143" s="3"/>
+    </row>
+    <row r="144" spans="2:5">
+      <c r="B144" s="3"/>
+      <c r="E144" s="3"/>
+    </row>
+    <row r="145" spans="2:5">
+      <c r="B145" s="3"/>
+      <c r="E145" s="3"/>
+    </row>
+    <row r="146" spans="2:5">
+      <c r="B146" s="3"/>
+      <c r="E146" s="3"/>
+    </row>
+    <row r="147" spans="2:5">
+      <c r="B147" s="3"/>
+      <c r="E147" s="3"/>
+    </row>
+    <row r="148" spans="2:5">
+      <c r="B148" s="3"/>
+      <c r="E148" s="3"/>
+    </row>
+    <row r="149" spans="2:5">
+      <c r="B149" s="3"/>
+      <c r="E149" s="3"/>
+    </row>
+    <row r="150" spans="2:5">
+      <c r="B150" s="3"/>
+      <c r="E150" s="3"/>
+    </row>
+    <row r="151" spans="2:5">
+      <c r="B151" s="3"/>
+      <c r="E151" s="3"/>
+    </row>
+    <row r="152" spans="2:5">
+      <c r="B152" s="3"/>
+      <c r="E152" s="3"/>
+    </row>
+    <row r="153" spans="2:5">
+      <c r="B153" s="3"/>
+      <c r="E153" s="3"/>
+    </row>
+    <row r="154" spans="2:5">
+      <c r="B154" s="3"/>
+      <c r="E154" s="3"/>
+    </row>
+    <row r="155" spans="2:5">
+      <c r="B155" s="3"/>
+      <c r="E155" s="3"/>
+    </row>
+    <row r="156" spans="2:5">
+      <c r="B156" s="3"/>
+      <c r="E156" s="3"/>
+    </row>
+    <row r="157" spans="2:5">
+      <c r="B157" s="3"/>
+      <c r="E157" s="3"/>
+    </row>
+    <row r="158" spans="2:5">
+      <c r="B158" s="3"/>
+      <c r="E158" s="3"/>
+    </row>
+    <row r="159" spans="2:5">
+      <c r="B159" s="3"/>
+      <c r="E159" s="3"/>
+    </row>
+    <row r="160" spans="2:5">
+      <c r="B160" s="3"/>
+      <c r="E160" s="3"/>
+    </row>
+    <row r="161" spans="2:5">
+      <c r="B161" s="3"/>
+      <c r="E161" s="3"/>
+    </row>
+    <row r="162" spans="2:5">
+      <c r="B162" s="3"/>
+      <c r="E162" s="3"/>
+    </row>
+    <row r="163" spans="2:5">
+      <c r="B163" s="3"/>
+      <c r="E163" s="3"/>
+    </row>
+    <row r="164" spans="2:5">
+      <c r="B164" s="3"/>
+      <c r="E164" s="3"/>
+    </row>
+    <row r="165" spans="2:5">
+      <c r="B165" s="3"/>
+      <c r="E165" s="3"/>
+    </row>
+    <row r="166" spans="2:5">
+      <c r="B166" s="3"/>
+      <c r="E166" s="3"/>
+    </row>
+    <row r="167" spans="2:5">
+      <c r="B167" s="3"/>
+      <c r="E167" s="3"/>
+    </row>
+    <row r="168" spans="2:5">
+      <c r="B168" s="3"/>
+      <c r="E168" s="3"/>
+    </row>
+    <row r="169" spans="2:5">
+      <c r="B169" s="3"/>
+      <c r="E169" s="3"/>
+    </row>
+    <row r="170" spans="2:5">
+      <c r="B170" s="3"/>
+      <c r="E170" s="3"/>
+    </row>
+    <row r="171" spans="2:5">
+      <c r="B171" s="3"/>
+      <c r="E171" s="3"/>
+    </row>
+    <row r="172" spans="2:5">
+      <c r="B172" s="3"/>
+      <c r="E172" s="3"/>
+    </row>
+    <row r="173" spans="2:5">
+      <c r="B173" s="3"/>
+      <c r="E173" s="3"/>
+    </row>
+    <row r="174" spans="2:5">
+      <c r="B174" s="3"/>
+      <c r="E174" s="3"/>
+    </row>
+    <row r="175" spans="2:5">
+      <c r="B175" s="3"/>
+      <c r="E175" s="3"/>
+    </row>
+    <row r="176" spans="2:5">
+      <c r="B176" s="3"/>
+      <c r="E176" s="3"/>
+    </row>
+    <row r="177" spans="2:5">
+      <c r="B177" s="3"/>
+      <c r="E177" s="3"/>
+    </row>
+    <row r="178" spans="2:5">
+      <c r="B178" s="3"/>
+      <c r="E178" s="3"/>
+    </row>
+    <row r="179" spans="2:5">
+      <c r="B179" s="3"/>
+      <c r="E179" s="3"/>
+    </row>
+    <row r="180" spans="2:5">
+      <c r="B180" s="3"/>
+      <c r="E180" s="3"/>
+    </row>
+    <row r="181" spans="2:5">
+      <c r="B181" s="3"/>
+      <c r="E181" s="3"/>
+    </row>
+    <row r="182" spans="2:5">
+      <c r="B182" s="3"/>
+      <c r="E182" s="3"/>
+    </row>
+    <row r="183" spans="2:5">
+      <c r="B183" s="3"/>
+      <c r="E183" s="3"/>
+    </row>
+    <row r="184" spans="2:5">
+      <c r="B184" s="3"/>
+      <c r="E184" s="3"/>
+    </row>
+    <row r="185" spans="2:5">
+      <c r="B185" s="3"/>
+      <c r="E185" s="3"/>
+    </row>
+    <row r="186" spans="2:5">
+      <c r="B186" s="3"/>
+      <c r="E186" s="3"/>
+    </row>
+    <row r="187" spans="2:5">
+      <c r="B187" s="3"/>
+      <c r="E187" s="3"/>
+    </row>
+    <row r="188" spans="2:5">
+      <c r="B188" s="3"/>
+      <c r="E188" s="3"/>
+    </row>
+    <row r="189" spans="2:5">
+      <c r="B189" s="3"/>
+      <c r="E189" s="3"/>
+    </row>
+    <row r="190" spans="2:5">
+      <c r="B190" s="3"/>
+      <c r="E190" s="3"/>
+    </row>
+    <row r="191" spans="2:5">
+      <c r="B191" s="3"/>
+      <c r="E191" s="3"/>
+    </row>
+    <row r="192" spans="2:5">
+      <c r="B192" s="3"/>
+      <c r="E192" s="3"/>
+    </row>
+    <row r="193" spans="2:5">
+      <c r="B193" s="3"/>
+      <c r="E193" s="3"/>
+    </row>
+    <row r="194" spans="2:5">
+      <c r="B194" s="3"/>
+      <c r="E194" s="3"/>
+    </row>
+    <row r="195" spans="2:5">
+      <c r="B195" s="3"/>
+      <c r="E195" s="3"/>
+    </row>
+    <row r="196" spans="2:5">
+      <c r="B196" s="3"/>
+      <c r="E196" s="3"/>
+    </row>
+    <row r="197" spans="2:5">
+      <c r="B197" s="3"/>
+      <c r="E197" s="3"/>
+    </row>
+    <row r="198" spans="2:5">
+      <c r="B198" s="3"/>
+      <c r="E198" s="3"/>
+    </row>
+    <row r="199" spans="2:5">
+      <c r="B199" s="3"/>
+      <c r="E199" s="3"/>
+    </row>
+    <row r="200" spans="2:5">
+      <c r="B200" s="3"/>
+      <c r="E200" s="3"/>
+    </row>
+    <row r="201" spans="2:5">
+      <c r="B201" s="3"/>
+      <c r="E201" s="3"/>
+    </row>
+    <row r="202" spans="2:5">
+      <c r="B202" s="3"/>
+      <c r="E202" s="3"/>
+    </row>
+    <row r="203" spans="2:5">
+      <c r="B203" s="3"/>
+      <c r="E203" s="3"/>
+    </row>
+    <row r="204" spans="2:5">
+      <c r="B204" s="3"/>
+      <c r="E204" s="3"/>
+    </row>
+    <row r="205" spans="2:5">
+      <c r="B205" s="3"/>
+      <c r="E205" s="3"/>
+    </row>
+    <row r="206" spans="2:5">
+      <c r="B206" s="3"/>
+      <c r="E206" s="3"/>
+    </row>
+    <row r="207" spans="2:5">
+      <c r="B207" s="3"/>
+      <c r="E207" s="3"/>
+    </row>
+    <row r="208" spans="2:5">
+      <c r="B208" s="3"/>
+      <c r="E208" s="3"/>
+    </row>
+    <row r="209" spans="2:5">
+      <c r="B209" s="3"/>
+      <c r="E209" s="3"/>
+    </row>
+    <row r="210" spans="2:5">
+      <c r="B210" s="3"/>
+      <c r="E210" s="3"/>
+    </row>
+    <row r="211" spans="2:5">
+      <c r="B211" s="3"/>
+      <c r="E211" s="3"/>
+    </row>
+    <row r="212" spans="2:5">
+      <c r="B212" s="3"/>
+      <c r="E212" s="3"/>
+    </row>
+    <row r="213" spans="2:5">
+      <c r="B213" s="3"/>
+      <c r="E213" s="3"/>
+    </row>
+    <row r="214" spans="2:5">
+      <c r="B214" s="3"/>
+      <c r="E214" s="3"/>
+    </row>
+    <row r="215" spans="2:5">
+      <c r="B215" s="3"/>
+      <c r="E215" s="3"/>
+    </row>
+    <row r="216" spans="2:5">
+      <c r="B216" s="3"/>
+      <c r="E216" s="3"/>
+    </row>
+    <row r="217" spans="2:5">
+      <c r="B217" s="3"/>
+      <c r="E217" s="3"/>
+    </row>
+    <row r="218" spans="2:5">
+      <c r="B218" s="3"/>
+      <c r="E218" s="3"/>
+    </row>
+    <row r="219" spans="2:5">
+      <c r="B219" s="3"/>
+      <c r="E219" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E22:E46">
+  <conditionalFormatting sqref="E2:E201">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E202:E219">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E4 E11:E21">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
